--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-01_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-01_end.xlsx
@@ -244,15 +244,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] I didn’t cut off your hands! Pick yourself up!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected Patrol Unit"] ...Don’t you dare think this is over!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] I’ll cut out your tongue right here, then.
+    <t xml:space="preserve">[name="Talulah"] I didn't cut off your hands! Pick yourself up!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Patrol Unit"] ...Don't you dare think this is over!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I'll cut out your tongue right here, then.
 </t>
   </si>
   <si>
@@ -268,23 +268,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Man"] What have you done! Oh, God, Talulah... Look at what you’ve done! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Man"] Talulah, we’ll have to transport the village in two days. Just look at what you’ve...! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Man"] You fought a patrolman! There’ll be hell to pay now! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] Letting him beat you was even less of an idea. It’s getting late, and he’s on the run. If I kill him now, we’ll be long gone by the time the others find his remains.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] But that wouldn’t solve any of our problems. Once the patrol unit regroups, they’d still come looking for us. They might well be out to get revenge on us. 
+    <t xml:space="preserve">[name="Old Man"] What have you done! Oh, God, Talulah... Look at what you've done! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Man"] Talulah, we'll have to transport the village in two days. Just look at what you've...! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Man"] You fought a patrolman! There'll be hell to pay now! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Letting him beat you was even less of an idea. It's getting late, and he's on the run. If I kill him now, we'll be long gone by the time the others find his remains.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] But that wouldn't solve any of our problems. Once the patrol unit regroups, they'd still come looking for us. They might well be out to get revenge on us. 
 </t>
   </si>
   <si>
@@ -292,7 +292,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] Calm down. They’re looking for Infected. They still don’t know. 
+    <t xml:space="preserve">[name="Talulah"] Calm down. They're looking for Infected. They still don't know. 
 </t>
   </si>
   <si>
@@ -300,11 +300,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Man"] Don’t know what?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] They don’t know what I’m about to do.
+    <t xml:space="preserve">[name="Old Man"] Don't know what?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] They don't know what I'm about to do.
 </t>
   </si>
   <si>
@@ -312,7 +312,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] It’s okay. Come on, I’ll walk you back. 
+    <t xml:space="preserve">[name="Talulah"] It's okay. Come on, I'll walk you back. 
 </t>
   </si>
   <si>
@@ -320,11 +320,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Man"] Hah. So today’s the day you start helping me walk? Always thought I was still in good shape myself. Who’d’ve guessed I couldn’t outrun it?  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Man"] Talulah, there’s something I need to tell you.
+    <t xml:space="preserve">[name="Old Man"] Hah. So today's the day you start helping me walk? Always thought I was still in good shape myself. Who'd've guessed I couldn't outrun it?  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Man"] Talulah, there's something I need to tell you.
 </t>
   </si>
   <si>
@@ -332,7 +332,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Man"] Ah, good question. Heh, hahah, sorry, I don’t remember. Look at me now. Look at my memory...  
+    <t xml:space="preserve">[name="Old Man"] Ah, good question. Heh, hahah, sorry, I don't remember. Look at me now. Look at my memory...  
 </t>
   </si>
   <si>
@@ -340,7 +340,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] That’s some impressive forgetfulness, alright.
+    <t xml:space="preserve">[name="Talulah"] That's some impressive forgetfulness, alright.
 </t>
   </si>
   <si>
